--- a/documents/champChart.xlsx
+++ b/documents/champChart.xlsx
@@ -1,41 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20359"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Champ\champserver\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Champ-Server\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C97D358-1138-44D7-8532-A13C587FD40C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A43EAE2-E992-4C1E-89EB-6DAFD85EC781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{20CA4BF8-D6C8-4588-95BA-92C7DF3D6190}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{20CA4BF8-D6C8-4588-95BA-92C7DF3D6190}"/>
   </bookViews>
   <sheets>
     <sheet name="Diagram" sheetId="1" r:id="rId1"/>
     <sheet name="Collections" sheetId="2" r:id="rId2"/>
+    <sheet name="Configuration" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Diagram!$A$1:$R$36</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
   <si>
     <t>sportFigure
 service</t>
@@ -133,12 +128,24 @@
   <si>
     <t>sportFigures collection</t>
   </si>
+  <si>
+    <t>x-rapidapi-key</t>
+  </si>
+  <si>
+    <t>0f310d67a1mshda0cffd2bce707ep14e36bjsne2f599259e4f</t>
+  </si>
+  <si>
+    <t>x-rapidapi-host</t>
+  </si>
+  <si>
+    <t>api-football-v1.p.rapidapi.com</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,6 +168,26 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF505050"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -189,7 +216,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -286,11 +313,73 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -310,6 +399,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -343,9 +435,15 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2428,7 +2526,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ערכת נושא Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2726,8 +2824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D3E8553-EFDB-4872-8C03-7BDF4342F9A5}">
   <dimension ref="B2:L31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2749,39 +2847,39 @@
   <sheetData>
     <row r="2" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="12"/>
     </row>
     <row r="5" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:12" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
     </row>
     <row r="7" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
     </row>
     <row r="8" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
     </row>
     <row r="9" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
     </row>
     <row r="10" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
     </row>
     <row r="14" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="2:12" s="4" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2828,31 +2926,31 @@
     </row>
     <row r="22" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="F23" s="12" t="s">
+      <c r="F23" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="F24" s="13"/>
+      <c r="F24" s="14"/>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="F25" s="13"/>
+      <c r="F25" s="14"/>
     </row>
     <row r="26" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="7"/>
-      <c r="F26" s="14"/>
+      <c r="F26" s="15"/>
     </row>
     <row r="28" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="29" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="J29" s="15" t="s">
+      <c r="J29" s="16" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="J30" s="16"/>
+      <c r="J30" s="17"/>
     </row>
     <row r="31" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J31" s="17"/>
+      <c r="J31" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2888,26 +2986,26 @@
   <sheetData>
     <row r="1" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="E2" s="18" t="s">
+      <c r="C2" s="20"/>
+      <c r="E2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="19"/>
-      <c r="H2" s="18" t="s">
+      <c r="F2" s="20"/>
+      <c r="H2" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="19"/>
-      <c r="K2" s="18" t="s">
+      <c r="I2" s="20"/>
+      <c r="K2" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="19"/>
-      <c r="N2" s="18" t="s">
+      <c r="L2" s="20"/>
+      <c r="N2" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="19"/>
+      <c r="O2" s="20"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
@@ -3055,4 +3153,55 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11AF62D4-4EA8-44B0-A06A-DD9C49AA1DF4}">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.5703125" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="21"/>
+    <col min="3" max="3" width="53.85546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="21"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="23"/>
+      <c r="C2" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="25"/>
+    </row>
+    <row r="3" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="27"/>
+      <c r="C3" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="29"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>